--- a/election_votar_data/SATKANIA/AMILAIS/152408/152408_com_448_male_without_photo_26_2025-11-24.xlsx
+++ b/election_votar_data/SATKANIA/AMILAIS/152408/152408_com_448_male_without_photo_26_2025-11-24.xlsx
@@ -451,7 +451,7 @@
     <col width="36.5" customWidth="1" min="4" max="4"/>
     <col width="41" customWidth="1" min="5" max="5"/>
     <col width="41.5" customWidth="1" min="6" max="6"/>
-    <col width="17" customWidth="1" min="7" max="7"/>
+    <col width="16" customWidth="1" min="7" max="7"/>
     <col width="50" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
@@ -19005,14 +19005,10 @@
       </c>
       <c r="F442" s="3" t="inlineStr">
         <is>
-          <t>কৃষক</t>
-        </is>
-      </c>
-      <c r="G442" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> ১৫/০৭/১৯৬৪</t>
-        </is>
-      </c>
+          <t>ক্ষেত্রজ্ঞ তারিখ: ১৫/০৭/১৯৬৪</t>
+        </is>
+      </c>
+      <c r="G442" s="3" t="inlineStr"/>
       <c r="H442" s="5" t="inlineStr">
         <is>
           <t>৩০৯, হাসন সওদাগরের বাড়ী, মধ্য আমিলাইশ, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
